--- a/data/RelacionalXLSX.xlsx
+++ b/data/RelacionalXLSX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanpablohernandeztroncoso/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanpablohernandeztroncoso/Desktop/DeskDocs/SisTrans/PT2/ProyectoSisTrans/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B093522-8E18-0047-874A-BC06D0176858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F718A-6257-8847-B401-7294DC696BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="6" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>GIMNASIOS</t>
   </si>
   <si>
-    <t>INTERNETS</t>
-  </si>
-  <si>
     <r>
       <t>PK, FK</t>
     </r>
@@ -489,6 +486,9 @@
   <si>
     <t>Diurno</t>
   </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -674,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382877DF-0A26-7D45-9E55-4927E07A4BFD}">
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1921,7 +1918,7 @@
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5">
@@ -2126,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2160,13 +2157,13 @@
         <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2192,13 +2189,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2224,13 +2221,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2256,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2288,13 +2285,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2320,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2526,18 +2523,18 @@
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H55" s="1"/>
@@ -2563,20 +2560,20 @@
       <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>44197</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>0.5</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>64</v>
+      <c r="G56" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2609,7 +2606,7 @@
       <c r="F57" s="5">
         <v>1</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>1</v>
       </c>
       <c r="L57" s="1"/>
@@ -2668,10 +2665,10 @@
         <v>40</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
@@ -2700,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
@@ -2733,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="5">
         <v>50</v>
@@ -2811,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2878,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2963,10 +2960,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3034,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3085,7 +3082,7 @@
     <row r="74" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3119,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="79" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="11"/>
+      <c r="B79" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3266,10 +3263,10 @@
         <v>40</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3326,11 +3323,11 @@
     </row>
     <row r="82" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="16">
+      <c r="B82" s="15">
         <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D82" s="5">
         <v>50</v>
@@ -3384,10 +3381,10 @@
     </row>
     <row r="84" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="11"/>
+      <c r="B84" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="10"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3415,11 +3412,11 @@
       <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3447,10 +3444,10 @@
       <c r="B86" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="1"/>
@@ -3476,13 +3473,13 @@
     </row>
     <row r="87" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>7</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="17">
+      <c r="C87" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="16">
         <v>200</v>
       </c>
       <c r="E87" s="1"/>
@@ -3534,10 +3531,10 @@
     </row>
     <row r="89" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="11"/>
+      <c r="B89" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3565,11 +3562,11 @@
       <c r="B90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>102</v>
+      <c r="D90" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3597,10 +3594,10 @@
       <c r="B91" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="1"/>
@@ -3626,13 +3623,13 @@
     </row>
     <row r="92" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>8</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>3</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="16">
         <v>1000</v>
       </c>
       <c r="E92" s="1"/>
@@ -3684,10 +3681,10 @@
     </row>
     <row r="94" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="11"/>
+      <c r="C94" s="10"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3715,14 +3712,14 @@
       <c r="B95" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="E95" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -3749,13 +3746,13 @@
       <c r="B96" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D96" s="15" t="s">
+      <c r="C96" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="1"/>
@@ -3780,16 +3777,16 @@
     </row>
     <row r="97" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>9</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="17">
+      <c r="C97" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="16">
         <v>5</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="16">
         <v>5000</v>
       </c>
       <c r="F97" s="1"/>
@@ -3840,10 +3837,10 @@
     </row>
     <row r="99" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="11"/>
+      <c r="B99" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="10"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3868,14 +3865,14 @@
     </row>
     <row r="100" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>74</v>
+      <c r="D100" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3900,13 +3897,13 @@
     </row>
     <row r="101" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B101" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="1"/>
@@ -3932,13 +3929,13 @@
     </row>
     <row r="102" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="16">
+      <c r="B102" s="15">
         <v>1</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D102" s="17">
+      <c r="C102" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="16">
         <v>20</v>
       </c>
       <c r="E102" s="1"/>
@@ -3990,10 +3987,10 @@
     </row>
     <row r="104" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="11"/>
+      <c r="B104" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="10"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4018,11 +4015,11 @@
     </row>
     <row r="105" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4048,11 +4045,11 @@
     </row>
     <row r="106" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4078,10 +4075,10 @@
     </row>
     <row r="107" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="16">
+      <c r="B107" s="15">
         <v>1</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="16">
         <v>1</v>
       </c>
       <c r="D107" s="1"/>

--- a/data/RelacionalXLSX.xlsx
+++ b/data/RelacionalXLSX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanpablohernandeztroncoso/Desktop/DeskDocs/SisTrans/PT2/ProyectoSisTrans/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F718A-6257-8847-B401-7294DC696BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4843CD2-5381-B448-B10D-534D3FD58C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="6" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382877DF-0A26-7D45-9E55-4927E07A4BFD}">
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
